--- a/cs_app/data/df_area.xlsx
+++ b/cs_app/data/df_area.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,23 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>runoff</t>
-  </si>
-  <si>
-    <t>peak_runoff_rate</t>
-  </si>
-  <si>
-    <t>infiltration</t>
-  </si>
-  <si>
-    <t>evaporation</t>
   </si>
   <si>
     <t>area</t>
@@ -34,8 +25,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,17 +85,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +138,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -176,6 +172,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -210,9 +207,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,91 +383,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>43.71434900248959</v>
+        <v>43.714349002489591</v>
       </c>
       <c r="C2">
-        <v>0.05955207878353623</v>
-      </c>
-      <c r="D2">
-        <v>56.87505754780234</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>82.58545985680733</v>
+        <v>82.585459856807333</v>
       </c>
       <c r="C3">
-        <v>0.0988241936606845</v>
-      </c>
-      <c r="D3">
-        <v>118.4920832571576</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>118.6683490504905</v>
+        <v>118.66834905049051</v>
       </c>
       <c r="C4">
-        <v>0.1263254227337666</v>
-      </c>
-      <c r="D4">
-        <v>182.8775903910751</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -477,39 +447,21 @@
         <v>152.7121369686366</v>
       </c>
       <c r="C5">
-        <v>0.1478759856851469</v>
-      </c>
-      <c r="D5">
-        <v>249.2941110237726</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>185.1407843888846</v>
+        <v>185.14078438888461</v>
       </c>
       <c r="C6">
-        <v>0.166101087004611</v>
-      </c>
-      <c r="D6">
-        <v>317.3213550088263</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -517,259 +469,142 @@
         <v>216.2335935081243</v>
       </c>
       <c r="C7">
-        <v>0.1822966213172836</v>
-      </c>
-      <c r="D7">
-        <v>386.6807489877923</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>246.1907517415786</v>
+        <v>246.19075174157859</v>
       </c>
       <c r="C8">
-        <v>0.1971664153411279</v>
-      </c>
-      <c r="D8">
-        <v>457.1735000322764</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>275.1636561127515</v>
+        <v>275.16365611275148</v>
       </c>
       <c r="C9">
-        <v>0.2111230077860318</v>
-      </c>
-      <c r="D9">
-        <v>528.6483701483249</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>303.2712756888463</v>
+        <v>303.27127568884629</v>
       </c>
       <c r="C10">
-        <v>0.2244229625766946</v>
-      </c>
-      <c r="D10">
-        <v>600.9868898415202</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>330.6095973487095</v>
+        <v>330.60959734870949</v>
       </c>
       <c r="C11">
-        <v>0.2372333848423839</v>
-      </c>
-      <c r="D11">
-        <v>674.09321991283</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>357.2577577371196</v>
+        <v>357.25775773711962</v>
       </c>
       <c r="C12">
-        <v>0.2496671307637463</v>
-      </c>
-      <c r="D12">
-        <v>747.8882429597422</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>383.2822394987347</v>
+        <v>383.28223949873473</v>
       </c>
       <c r="C13">
-        <v>0.2618026273935053</v>
-      </c>
-      <c r="D13">
-        <v>822.3054073814297</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>408.739564579563</v>
+        <v>408.73956457956302</v>
       </c>
       <c r="C14">
-        <v>0.2736956181768616</v>
-      </c>
-      <c r="D14">
-        <v>897.2882770870823</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>433.6784049316904</v>
+        <v>433.67840493169041</v>
       </c>
       <c r="C15">
-        <v>0.2853864324146516</v>
-      </c>
-      <c r="D15">
-        <v>972.7886347666088</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>458.1410650203132</v>
+        <v>458.14106502031319</v>
       </c>
       <c r="C16">
-        <v>0.2969046537203734</v>
-      </c>
-      <c r="D16">
-        <v>1048.763399051725</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>482.164640940954</v>
+        <v>482.16464094095397</v>
       </c>
       <c r="C17">
-        <v>0.3082722143496417</v>
-      </c>
-      <c r="D17">
-        <v>1125.176229794156</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>505.7818433640846</v>
+        <v>505.78184336408458</v>
       </c>
       <c r="C18">
-        <v>0.3195055025845785</v>
-      </c>
-      <c r="D18">
-        <v>1201.994115890458</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>529.0217858315852</v>
+        <v>529.02178583158525</v>
       </c>
       <c r="C19">
-        <v>0.3306168318786468</v>
-      </c>
-      <c r="D19">
-        <v>1279.187978358964</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -777,39 +612,21 @@
         <v>551.9104841224804</v>
       </c>
       <c r="C20">
-        <v>0.3416154858814145</v>
-      </c>
-      <c r="D20">
-        <v>1356.731900842437</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>574.4712088352732</v>
+        <v>574.47120883527316</v>
       </c>
       <c r="C21">
-        <v>0.3525084747840148</v>
-      </c>
-      <c r="D21">
-        <v>1434.602269910448</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -817,119 +634,65 @@
         <v>596.7251451077675</v>
       </c>
       <c r="C22">
-        <v>0.3633010909602171</v>
-      </c>
-      <c r="D22">
-        <v>1512.778304545453</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>618.6912959965405</v>
+        <v>618.69129599654048</v>
       </c>
       <c r="C23">
-        <v>0.3739973224213791</v>
-      </c>
-      <c r="D23">
-        <v>1591.240832713384</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>640.3870180853611</v>
+        <v>640.38701808536109</v>
       </c>
       <c r="C24">
-        <v>0.3846001638506144</v>
-      </c>
-      <c r="D24">
-        <v>1669.972158532264</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>661.828188727339</v>
+        <v>661.82818872733901</v>
       </c>
       <c r="C25">
-        <v>0.3951118527634455</v>
-      </c>
-      <c r="D25">
-        <v>1748.956865603173</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>683.0292876182119</v>
+        <v>683.02928761821192</v>
       </c>
       <c r="C26">
-        <v>0.4055340502125817</v>
-      </c>
-      <c r="D26">
-        <v>1828.180285911213</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>704.0036129682716</v>
+        <v>704.00361296827157</v>
       </c>
       <c r="C27">
-        <v>0.415867979940485</v>
-      </c>
-      <c r="D27">
-        <v>1907.629103368302</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -937,119 +700,65 @@
         <v>724.7634206256165</v>
       </c>
       <c r="C28">
-        <v>0.4261145360773911</v>
-      </c>
-      <c r="D28">
-        <v>1987.291260933937</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>745.3199758518098</v>
+        <v>745.31997585180977</v>
       </c>
       <c r="C29">
-        <v>0.4362743668129931</v>
-      </c>
-      <c r="D29">
-        <v>2067.154954701791</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>765.6837047664733</v>
+        <v>765.68370476647328</v>
       </c>
       <c r="C30">
-        <v>0.4463479395700003</v>
-      </c>
-      <c r="D30">
-        <v>2147.210058890673</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>785.8643061740728</v>
+        <v>785.86430617407279</v>
       </c>
       <c r="C31">
-        <v>0.4563355918371458</v>
-      </c>
-      <c r="D31">
-        <v>2227.446901416775</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>805.8708070537169</v>
+        <v>805.87080705371693</v>
       </c>
       <c r="C32">
-        <v>0.4662375708181942</v>
-      </c>
-      <c r="D32">
-        <v>2307.856541967456</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>825.7114605247893</v>
+        <v>825.71146052478935</v>
       </c>
       <c r="C33">
-        <v>0.4760540643140874</v>
-      </c>
-      <c r="D33">
-        <v>2388.430339863721</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1057,179 +766,98 @@
         <v>845.3941660864964</v>
       </c>
       <c r="C34">
-        <v>0.4857852247035107</v>
-      </c>
-      <c r="D34">
-        <v>2469.160830545702</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>864.9260745455657</v>
+        <v>864.92607454556571</v>
       </c>
       <c r="C35">
-        <v>0.4954311874713047</v>
-      </c>
-      <c r="D35">
-        <v>2550.040373454041</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>884.3140931435105</v>
+        <v>884.31409314351049</v>
       </c>
       <c r="C36">
-        <v>0.5049920854180716</v>
-      </c>
-      <c r="D36">
-        <v>2631.062486194988</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>903.564498901937</v>
+        <v>903.56449890193699</v>
       </c>
       <c r="C37">
-        <v>0.5144680594420938</v>
-      </c>
-      <c r="D37">
-        <v>2712.220742685612</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>922.6832627065253</v>
+        <v>922.68326270652528</v>
       </c>
       <c r="C38">
-        <v>0.5238592665977202</v>
-      </c>
-      <c r="D38">
-        <v>2793.508766025394</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>941.6760393389793</v>
+        <v>941.67603933897931</v>
       </c>
       <c r="C39">
-        <v>0.5331658859890589</v>
-      </c>
-      <c r="D39">
-        <v>2874.921460621649</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>960.548042325119</v>
+        <v>960.54804232511901</v>
       </c>
       <c r="C40">
-        <v>0.5423881229441845</v>
-      </c>
-      <c r="D40">
-        <v>2956.45337771116</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>979.3042130804286</v>
+        <v>979.30421308042855</v>
       </c>
       <c r="C41">
-        <v>0.5515262118257032</v>
-      </c>
-      <c r="D41">
-        <v>3038.099543312819</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>997.9492232590799</v>
+        <v>997.94922325907987</v>
       </c>
       <c r="C42">
-        <v>0.5605804177628839</v>
-      </c>
-      <c r="D42">
-        <v>3119.854983345557</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1237,19 +865,10 @@
         <v>1016.487503983577</v>
       </c>
       <c r="C43">
-        <v>0.569551037534443</v>
-      </c>
-      <c r="D43">
-        <v>3201.715734423993</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1257,59 +876,32 @@
         <v>1034.923196489545</v>
       </c>
       <c r="C44">
-        <v>0.5784383997863425</v>
-      </c>
-      <c r="D44">
-        <v>3283.677446889882</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1053.260221644097</v>
+        <v>1053.2602216440971</v>
       </c>
       <c r="C45">
-        <v>0.5872428647331057</v>
-      </c>
-      <c r="D45">
-        <v>3365.736176922944</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1071.50229327453</v>
+        <v>1071.5022932745301</v>
       </c>
       <c r="C46">
-        <v>0.595964823462385</v>
-      </c>
-      <c r="D46">
-        <v>3447.888192383466</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1317,39 +909,21 @@
         <v>1089.652929493006</v>
       </c>
       <c r="C47">
-        <v>0.6046046969392991</v>
-      </c>
-      <c r="D47">
-        <v>3530.129959153525</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1107.715465086569</v>
+        <v>1107.7154650865691</v>
       </c>
       <c r="C48">
-        <v>0.6131629347883217</v>
-      </c>
-      <c r="D48">
-        <v>3612.458128040319</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1357,19 +931,10 @@
         <v>1125.693063595817</v>
       </c>
       <c r="C49">
-        <v>0.621640013915297</v>
-      </c>
-      <c r="D49">
-        <v>3694.869522416009</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1377,19 +942,10 @@
         <v>1143.588728877688</v>
       </c>
       <c r="C50">
-        <v>0.6300364370198508</v>
-      </c>
-      <c r="D50">
-        <v>3777.361126607731</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1397,19 +953,10 @@
         <v>1161.405316271188</v>
       </c>
       <c r="C51">
-        <v>0.638352731038427</v>
-      </c>
-      <c r="D51">
-        <v>3859.930074983032</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1417,59 +964,32 @@
         <v>1179.145544171693</v>
       </c>
       <c r="C52">
-        <v>0.6465894455500327</v>
-      </c>
-      <c r="D52">
-        <v>3942.573641598635</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1196.812005816117</v>
+        <v>1196.8120058161171</v>
       </c>
       <c r="C53">
-        <v>0.6547471511701255</v>
-      </c>
-      <c r="D53">
-        <v>4025.289423740473</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1214.40713851868</v>
+        <v>1214.4071385186801</v>
       </c>
       <c r="C54">
-        <v>0.6628264379526617</v>
-      </c>
-      <c r="D54">
-        <v>4108.074483283805</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1477,39 +997,21 @@
         <v>1231.933279301338</v>
       </c>
       <c r="C55">
-        <v>0.670827913815903</v>
-      </c>
-      <c r="D55">
-        <v>4190.926749713937</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1249.392664962278</v>
+        <v>1249.3926649622781</v>
       </c>
       <c r="C56">
-        <v>0.6787522030039879</v>
-      </c>
-      <c r="D56">
-        <v>4273.843979319631</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1517,79 +1019,43 @@
         <v>1266.787436639295</v>
       </c>
       <c r="C57">
-        <v>0.6865999445933427</v>
-      </c>
-      <c r="D57">
-        <v>4356.824027144697</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1284.119657970691</v>
+        <v>1284.1196579706909</v>
       </c>
       <c r="C58">
-        <v>0.6943717910506183</v>
-      </c>
-      <c r="D58">
-        <v>4439.86504770912</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1301.391249785889</v>
+        <v>1301.3912497858889</v>
       </c>
       <c r="C59">
-        <v>0.702068406846922</v>
-      </c>
-      <c r="D59">
-        <v>4522.964534689921</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1318.604043190085</v>
+        <v>1318.6040431900849</v>
       </c>
       <c r="C60">
-        <v>0.7096904671315312</v>
-      </c>
-      <c r="D60">
-        <v>4606.120989228997</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1597,159 +1063,87 @@
         <v>1335.759837459867</v>
       </c>
       <c r="C61">
-        <v>0.7172386564670346</v>
-      </c>
-      <c r="D61">
-        <v>4689.332613055972</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1352.860380512095</v>
+        <v>1352.8603805120949</v>
       </c>
       <c r="C62">
-        <v>0.7247136676268248</v>
-      </c>
-      <c r="D62">
-        <v>4772.597830043002</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1369.907239711799</v>
+        <v>1369.9072397117991</v>
       </c>
       <c r="C63">
-        <v>0.732116200455065</v>
-      </c>
-      <c r="D63">
-        <v>4855.914548846434</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1386.901976652609</v>
+        <v>1386.9019766526089</v>
       </c>
       <c r="C64">
-        <v>0.739446960788617</v>
-      </c>
-      <c r="D64">
-        <v>4939.281531868251</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1403.846150715041</v>
+        <v>1403.8461507150409</v>
       </c>
       <c r="C65">
-        <v>0.7467066594399167</v>
-      </c>
-      <c r="D65">
-        <v>5022.697408658931</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1420.741138973336</v>
+        <v>1420.7411389733361</v>
       </c>
       <c r="C66">
-        <v>0.7538960112394034</v>
-      </c>
-      <c r="D66">
-        <v>5106.160235564061</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1437.588312861014</v>
+        <v>1437.5883128610139</v>
       </c>
       <c r="C67">
-        <v>0.7610157341358185</v>
-      </c>
-      <c r="D67">
-        <v>5189.66899837558</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1454.389067773376</v>
+        <v>1454.3890677733759</v>
       </c>
       <c r="C68">
-        <v>0.7680665483524655</v>
-      </c>
-      <c r="D68">
-        <v>5273.222435967195</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1757,39 +1151,21 @@
         <v>1471.144582168421</v>
       </c>
       <c r="C69">
-        <v>0.7750491755973882</v>
-      </c>
-      <c r="D69">
-        <v>5356.818888981675</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1487.856128513285</v>
+        <v>1487.8561285132851</v>
       </c>
       <c r="C70">
-        <v>0.7819643383253039</v>
-      </c>
-      <c r="D70">
-        <v>5440.457651033145</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1797,79 +1173,43 @@
         <v>1504.524885590464</v>
       </c>
       <c r="C71">
-        <v>0.7888127590490823</v>
-      </c>
-      <c r="D71">
-        <v>5524.136857058444</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1521.151924378862</v>
+        <v>1521.1519243788621</v>
       </c>
       <c r="C72">
-        <v>0.7955951596985292</v>
-      </c>
-      <c r="D72">
-        <v>5607.85586646574</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1537.738421846498</v>
+        <v>1537.7384218464981</v>
       </c>
       <c r="C73">
-        <v>0.8023122610242216</v>
-      </c>
-      <c r="D73">
-        <v>5691.613596231801</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1554.285315867401</v>
+        <v>1554.2853158674011</v>
       </c>
       <c r="C74">
-        <v>0.8089647820441886</v>
-      </c>
-      <c r="D74">
-        <v>5775.408685398112</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1877,19 +1217,10 @@
         <v>1570.793711938378</v>
       </c>
       <c r="C75">
-        <v>0.8155534395312356</v>
-      </c>
-      <c r="D75">
-        <v>5859.240487045902</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1897,19 +1228,10 @@
         <v>1587.264488640134</v>
       </c>
       <c r="C76">
-        <v>0.8220789475387853</v>
-      </c>
-      <c r="D76">
-        <v>5943.107594344374</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1917,19 +1239,10 @@
         <v>1603.698655734926</v>
       </c>
       <c r="C77">
-        <v>0.8285420169631553</v>
-      </c>
-      <c r="D77">
-        <v>6027.009536610582</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1937,19 +1250,10 @@
         <v>1620.097046422117</v>
       </c>
       <c r="C78">
-        <v>0.8349433551402584</v>
-      </c>
-      <c r="D78">
-        <v>6110.944895679539</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1957,19 +1261,10 @@
         <v>1636.460585984441</v>
       </c>
       <c r="C79">
-        <v>0.8412836654747935</v>
-      </c>
-      <c r="D79">
-        <v>6194.913323179126</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1977,99 +1272,54 @@
         <v>1652.790055325361</v>
       </c>
       <c r="C80">
-        <v>0.8475636471000523</v>
-      </c>
-      <c r="D80">
-        <v>6278.913434737319</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1669.086317954654</v>
+        <v>1669.0863179546541</v>
       </c>
       <c r="C81">
-        <v>0.853783994566566</v>
-      </c>
-      <c r="D81">
-        <v>6362.944945784066</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1685.350089762237</v>
+        <v>1685.3500897622371</v>
       </c>
       <c r="C82">
-        <v>0.859945397557873</v>
-      </c>
-      <c r="D82">
-        <v>6447.00655249297</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1701.582194632328</v>
+        <v>1701.5821946323281</v>
       </c>
       <c r="C83">
-        <v>0.8660485406317805</v>
-      </c>
-      <c r="D83">
-        <v>6531.097978622704</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1717.783275155358</v>
+        <v>1717.7832751553581</v>
       </c>
       <c r="C84">
-        <v>0.8720941029855644</v>
-      </c>
-      <c r="D84">
-        <v>6615.218042458009</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2077,59 +1327,32 @@
         <v>1733.954127786749</v>
       </c>
       <c r="C85">
-        <v>0.8780827582436322</v>
-      </c>
-      <c r="D85">
-        <v>6699.366429770938</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1750.095327620012</v>
+        <v>1750.0953276200121</v>
       </c>
       <c r="C86">
-        <v>0.8840151742662432</v>
-      </c>
-      <c r="D86">
-        <v>6783.542111428349</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1766.207635327619</v>
+        <v>1766.2076353276191</v>
       </c>
       <c r="C87">
-        <v>0.8898920129779504</v>
-      </c>
-      <c r="D87">
-        <v>6867.744703777812</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2137,19 +1360,10 @@
         <v>1782.291594491119</v>
       </c>
       <c r="C88">
-        <v>0.8957139302145134</v>
-      </c>
-      <c r="D88">
-        <v>6951.973563155918</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2157,19 +1371,10 @@
         <v>1798.347875501888</v>
       </c>
       <c r="C89">
-        <v>0.9014815755870793</v>
-      </c>
-      <c r="D89">
-        <v>7036.227567682412</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2177,39 +1382,21 @@
         <v>1814.377058715974</v>
       </c>
       <c r="C90">
-        <v>0.9071955923625087</v>
-      </c>
-      <c r="D90">
-        <v>7120.506800959523</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1830.37967884528</v>
+        <v>1830.3796788452801</v>
       </c>
       <c r="C91">
-        <v>0.912856617358777</v>
-      </c>
-      <c r="D91">
-        <v>7204.810119942733</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2217,19 +1404,10 @@
         <v>1846.356371427248</v>
       </c>
       <c r="C92">
-        <v>0.9184652808544526</v>
-      </c>
-      <c r="D92">
-        <v>7289.137395925174</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2237,99 +1415,54 @@
         <v>1862.307581812164</v>
       </c>
       <c r="C93">
-        <v>0.9240222065112911</v>
-      </c>
-      <c r="D93">
-        <v>7373.487761467281</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1878.233911881748</v>
+        <v>1878.2339118817481</v>
       </c>
       <c r="C94">
-        <v>0.9295280113090679</v>
-      </c>
-      <c r="D94">
-        <v>7457.860899769747</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1894.135833393956</v>
+        <v>1894.1358333939561</v>
       </c>
       <c r="C95">
-        <v>0.9349833054917894</v>
-      </c>
-      <c r="D95">
-        <v>7542.256291031284</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1910.013798441318</v>
+        <v>1910.0137984413179</v>
       </c>
       <c r="C96">
-        <v>0.9403886925245022</v>
-      </c>
-      <c r="D96">
-        <v>7626.673130425514</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1925.868366802472</v>
+        <v>1925.8683668024721</v>
       </c>
       <c r="C97">
-        <v>0.945744769059952</v>
-      </c>
-      <c r="D97">
-        <v>7711.111322126285</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2337,55 +1470,28 @@
         <v>1941.699923749547</v>
       </c>
       <c r="C98">
-        <v>0.9510521249143831</v>
-      </c>
-      <c r="D98">
-        <v>7795.570322737952</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1957.508933046338</v>
+        <v>1957.5089330463379</v>
       </c>
       <c r="C99">
-        <v>0.9563113430518342</v>
-      </c>
-      <c r="D99">
-        <v>7880.049285066656</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1973.295871858381</v>
+        <v>1973.2958718583809</v>
       </c>
       <c r="C100">
-        <v>0.9615229995762909</v>
-      </c>
-      <c r="D100">
-        <v>7964.548295712685</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
         <v>99</v>
       </c>
     </row>
